--- a/SysCall-BackEnd/Tabela de Permissões/Permissoes.xlsx
+++ b/SysCall-BackEnd/Tabela de Permissões/Permissoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsilva\Desktop\Syscall\SysCall-BackEnd\Tabela de Permissões\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB3D207-5094-4284-B8EF-8B18A706C118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA8E6242-1093-41E4-9C9D-E8F8446327CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2040" yWindow="-13620" windowWidth="24240" windowHeight="13020" xr2:uid="{A6CFD5AF-BC39-4EC9-9E67-69DE9BBF5090}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A6CFD5AF-BC39-4EC9-9E67-69DE9BBF5090}"/>
   </bookViews>
   <sheets>
     <sheet name="Permissões" sheetId="1" r:id="rId1"/>
@@ -997,6 +997,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1004,84 +1082,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,6 +1099,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1420,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3555C37-A7B2-42FA-9C1B-1F8C85AAC356}">
   <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="91" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,53 +1445,53 @@
     <row r="5" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-      <c r="M11" s="55" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="M11" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="49"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="60"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="37" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
       <c r="M13" s="29" t="s">
         <v>32</v>
       </c>
@@ -1499,7 +1503,7 @@
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1542,13 +1546,13 @@
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="32"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="58" t="s">
         <v>6</v>
       </c>
       <c r="L15" s="21"/>
@@ -1571,7 +1575,7 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="33"/>
+      <c r="F16" s="59"/>
       <c r="G16" s="15"/>
       <c r="H16" s="16" t="s">
         <v>6</v>
@@ -1579,7 +1583,7 @@
       <c r="I16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="33"/>
+      <c r="J16" s="59"/>
       <c r="L16" s="21"/>
       <c r="M16" s="20" t="s">
         <v>37</v>
@@ -1600,7 +1604,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="33"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
         <v>6</v>
@@ -1608,7 +1612,7 @@
       <c r="I17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="33"/>
+      <c r="J17" s="59"/>
       <c r="M17" s="25" t="s">
         <v>38</v>
       </c>
@@ -1628,7 +1632,7 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="33"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="5"/>
       <c r="H18" s="6" t="s">
         <v>6</v>
@@ -1636,7 +1640,7 @@
       <c r="I18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="33"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
@@ -1647,7 +1651,7 @@
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="33"/>
+      <c r="F19" s="59"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6" t="s">
         <v>6</v>
@@ -1655,7 +1659,7 @@
       <c r="I19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="33"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
@@ -1666,7 +1670,7 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="33"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
         <v>6</v>
@@ -1674,7 +1678,7 @@
       <c r="I20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="33"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -1685,7 +1689,7 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="33"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
         <v>6</v>
@@ -1693,7 +1697,7 @@
       <c r="I21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="33"/>
+      <c r="J21" s="59"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
@@ -1704,63 +1708,63 @@
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="34"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="11"/>
       <c r="H22" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="34"/>
+      <c r="J22" s="60"/>
     </row>
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="51"/>
-      <c r="M26" s="55" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="M26" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="N26" s="56"/>
-      <c r="O26" s="57"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="49"/>
     </row>
     <row r="27" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="60"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="46"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="52"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="37" t="s">
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="57"/>
       <c r="L28" s="21"/>
       <c r="M28" s="22" t="s">
         <v>32</v>
@@ -1773,7 +1777,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1813,18 +1817,18 @@
       <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
       <c r="G30" s="5"/>
       <c r="H30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="58" t="s">
         <v>6</v>
       </c>
       <c r="L30" s="21"/>
@@ -1842,10 +1846,10 @@
       <c r="B31" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="15" t="s">
         <v>6</v>
       </c>
@@ -1855,7 +1859,7 @@
       <c r="I31" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="33"/>
+      <c r="J31" s="59"/>
       <c r="L31" s="21"/>
       <c r="M31" s="20" t="s">
         <v>41</v>
@@ -1871,10 +1875,10 @@
       <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37"/>
       <c r="G32" s="5" t="s">
         <v>9</v>
       </c>
@@ -1884,7 +1888,7 @@
       <c r="I32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="33"/>
+      <c r="J32" s="59"/>
       <c r="L32" s="21"/>
       <c r="M32" s="30" t="s">
         <v>42</v>
@@ -1900,10 +1904,10 @@
       <c r="B33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="5" t="s">
         <v>6</v>
       </c>
@@ -1911,16 +1915,16 @@
         <v>6</v>
       </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="33"/>
+      <c r="J33" s="59"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="48"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="11" t="s">
         <v>6</v>
       </c>
@@ -1928,57 +1932,57 @@
         <v>6</v>
       </c>
       <c r="I34" s="12"/>
-      <c r="J34" s="34"/>
+      <c r="J34" s="60"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="51"/>
-      <c r="M38" s="55" t="s">
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="43"/>
+      <c r="M38" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="N38" s="56"/>
-      <c r="O38" s="57"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="49"/>
     </row>
     <row r="39" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="54"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="60"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="46"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="52"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="37" t="s">
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="57"/>
       <c r="M40" s="29" t="s">
         <v>32</v>
       </c>
@@ -1990,7 +1994,7 @@
       </c>
     </row>
     <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="36"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="1" t="s">
         <v>1</v>
       </c>
@@ -2029,12 +2033,12 @@
       <c r="B42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
       <c r="G42" s="5"/>
       <c r="H42" s="6" t="s">
         <v>6</v>
@@ -2046,13 +2050,13 @@
       <c r="B43" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="45"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="37"/>
       <c r="G43" s="15"/>
       <c r="H43" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="9"/>
@@ -2061,10 +2065,10 @@
       <c r="B44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="45"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="37"/>
       <c r="G44" s="5"/>
       <c r="H44" s="6" t="s">
         <v>6</v>
@@ -2076,10 +2080,10 @@
       <c r="B45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="45"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="37"/>
       <c r="G45" s="5"/>
       <c r="H45" s="6" t="s">
         <v>6</v>
@@ -2091,10 +2095,10 @@
       <c r="B46" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="48"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40"/>
       <c r="G46" s="11"/>
       <c r="H46" s="12" t="s">
         <v>6</v>
@@ -2104,12 +2108,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J15:J22"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="C42:F46"/>
     <mergeCell ref="B11:J12"/>
     <mergeCell ref="B26:J27"/>
     <mergeCell ref="B38:J39"/>
     <mergeCell ref="M11:O12"/>
     <mergeCell ref="M26:O27"/>
     <mergeCell ref="M38:O39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:F40"/>
     <mergeCell ref="F15:F22"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:F28"/>
@@ -2117,13 +2128,6 @@
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="J30:J34"/>
     <mergeCell ref="G13:J13"/>
-    <mergeCell ref="J15:J22"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="C42:F46"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:F40"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2170,9 +2174,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2320,26 +2327,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4483016-B552-4E7C-98FD-60950CE40536}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07C76C7B-EB59-4D89-AA80-0396BEA98F7A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87289aac-3191-415d-94b6-004c2ae78a31"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2363,9 +2359,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07C76C7B-EB59-4D89-AA80-0396BEA98F7A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4483016-B552-4E7C-98FD-60950CE40536}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="87289aac-3191-415d-94b6-004c2ae78a31"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>